--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>Source: Development Initiatives based on OECD DAC, UN OCHA FTS and UN CERF</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1538,32 +1535,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
@@ -1579,11 +1576,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1159,7 +1159,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>id</t>
   </si>
@@ -1165,7 +1165,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1578,6 +1581,11 @@
         <v>385</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -61,7 +61,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -182,12 +182,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -805,7 +805,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -823,7 +823,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -835,7 +835,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -991,7 +991,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1015,7 +1015,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1081,7 +1081,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -1174,7 +1174,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -6357,7 +6357,7 @@
         <v>2000</v>
       </c>
       <c r="D340" t="n">
-        <v>14720000</v>
+        <v>75030000</v>
       </c>
     </row>
     <row r="341">
@@ -6371,7 +6371,7 @@
         <v>2001</v>
       </c>
       <c r="D341" t="n">
-        <v>16300000</v>
+        <v>39530000</v>
       </c>
     </row>
     <row r="342">
@@ -6385,7 +6385,7 @@
         <v>2002</v>
       </c>
       <c r="D342" t="n">
-        <v>19180000</v>
+        <v>28720000</v>
       </c>
     </row>
     <row r="343">
@@ -6399,7 +6399,7 @@
         <v>2003</v>
       </c>
       <c r="D343" t="n">
-        <v>49750000</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="344">
@@ -6413,7 +6413,7 @@
         <v>2004</v>
       </c>
       <c r="D344" t="n">
-        <v>63750000</v>
+        <v>18860000</v>
       </c>
     </row>
     <row r="345">
@@ -6427,7 +6427,7 @@
         <v>2005</v>
       </c>
       <c r="D345" t="n">
-        <v>56340000</v>
+        <v>12760000</v>
       </c>
     </row>
     <row r="346">
@@ -6441,7 +6441,7 @@
         <v>2006</v>
       </c>
       <c r="D346" t="n">
-        <v>75700000</v>
+        <v>17280000</v>
       </c>
     </row>
     <row r="347">
@@ -6455,7 +6455,7 @@
         <v>2007</v>
       </c>
       <c r="D347" t="n">
-        <v>65370000</v>
+        <v>22860000</v>
       </c>
     </row>
     <row r="348">
@@ -6469,7 +6469,7 @@
         <v>2008</v>
       </c>
       <c r="D348" t="n">
-        <v>108620000</v>
+        <v>17750000</v>
       </c>
     </row>
     <row r="349">
@@ -6483,7 +6483,7 @@
         <v>2009</v>
       </c>
       <c r="D349" t="n">
-        <v>32870000</v>
+        <v>15220000</v>
       </c>
     </row>
     <row r="350">
@@ -6497,7 +6497,7 @@
         <v>2010</v>
       </c>
       <c r="D350" t="n">
-        <v>22220000</v>
+        <v>12800000</v>
       </c>
     </row>
     <row r="351">
@@ -6511,7 +6511,7 @@
         <v>2011</v>
       </c>
       <c r="D351" t="n">
-        <v>137260000</v>
+        <v>27810000</v>
       </c>
     </row>
     <row r="352">
@@ -6525,7 +6525,7 @@
         <v>2012</v>
       </c>
       <c r="D352" t="n">
-        <v>103070000</v>
+        <v>21930000</v>
       </c>
     </row>
     <row r="353">
@@ -6539,7 +6539,7 @@
         <v>2000</v>
       </c>
       <c r="D353" t="n">
-        <v>75030000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="354">
@@ -6553,7 +6553,7 @@
         <v>2001</v>
       </c>
       <c r="D354" t="n">
-        <v>39530000</v>
+        <v>36700000</v>
       </c>
     </row>
     <row r="355">
@@ -6567,7 +6567,7 @@
         <v>2002</v>
       </c>
       <c r="D355" t="n">
-        <v>28720000</v>
+        <v>7460000</v>
       </c>
     </row>
     <row r="356">
@@ -6581,7 +6581,7 @@
         <v>2003</v>
       </c>
       <c r="D356" t="n">
-        <v>14440000</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="357">
@@ -6595,7 +6595,7 @@
         <v>2004</v>
       </c>
       <c r="D357" t="n">
-        <v>18860000</v>
+        <v>7810000</v>
       </c>
     </row>
     <row r="358">
@@ -6609,7 +6609,7 @@
         <v>2005</v>
       </c>
       <c r="D358" t="n">
-        <v>12760000</v>
+        <v>6360000</v>
       </c>
     </row>
     <row r="359">
@@ -6623,7 +6623,7 @@
         <v>2006</v>
       </c>
       <c r="D359" t="n">
-        <v>17280000</v>
+        <v>5640000</v>
       </c>
     </row>
     <row r="360">
@@ -6637,7 +6637,7 @@
         <v>2007</v>
       </c>
       <c r="D360" t="n">
-        <v>22860000</v>
+        <v>5610000</v>
       </c>
     </row>
     <row r="361">
@@ -6651,7 +6651,7 @@
         <v>2008</v>
       </c>
       <c r="D361" t="n">
-        <v>17750000</v>
+        <v>28410000</v>
       </c>
     </row>
     <row r="362">
@@ -6665,7 +6665,7 @@
         <v>2009</v>
       </c>
       <c r="D362" t="n">
-        <v>15220000</v>
+        <v>28820000</v>
       </c>
     </row>
     <row r="363">
@@ -6679,7 +6679,7 @@
         <v>2010</v>
       </c>
       <c r="D363" t="n">
-        <v>12800000</v>
+        <v>18040000</v>
       </c>
     </row>
     <row r="364">
@@ -6693,7 +6693,7 @@
         <v>2011</v>
       </c>
       <c r="D364" t="n">
-        <v>27810000</v>
+        <v>20310000</v>
       </c>
     </row>
     <row r="365">
@@ -6707,7 +6707,7 @@
         <v>2012</v>
       </c>
       <c r="D365" t="n">
-        <v>21930000</v>
+        <v>48030000</v>
       </c>
     </row>
     <row r="366">
@@ -6721,7 +6721,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>3250000</v>
+        <v>4540000</v>
       </c>
     </row>
     <row r="367">
@@ -6735,7 +6735,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>36700000</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="368">
@@ -6749,7 +6749,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>7460000</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="369">
@@ -6763,7 +6763,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>9810000</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="370">
@@ -6777,7 +6777,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>7810000</v>
+        <v>5890000</v>
       </c>
     </row>
     <row r="371">
@@ -6791,7 +6791,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>6360000</v>
+        <v>1030000</v>
       </c>
     </row>
     <row r="372">
@@ -6805,7 +6805,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>5640000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="373">
@@ -6819,7 +6819,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>5610000</v>
+        <v>1360000</v>
       </c>
     </row>
     <row r="374">
@@ -6833,7 +6833,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>28410000</v>
+        <v>1940000</v>
       </c>
     </row>
     <row r="375">
@@ -6847,7 +6847,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>28820000</v>
+        <v>2530000</v>
       </c>
     </row>
     <row r="376">
@@ -6861,7 +6861,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>18040000</v>
+        <v>4690000</v>
       </c>
     </row>
     <row r="377">
@@ -6875,7 +6875,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>20310000</v>
+        <v>1370000</v>
       </c>
     </row>
     <row r="378">
@@ -6889,7 +6889,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>48030000</v>
+        <v>2180000</v>
       </c>
     </row>
     <row r="379">
@@ -6903,7 +6903,7 @@
         <v>2000</v>
       </c>
       <c r="D379" t="n">
-        <v>4540000</v>
+        <v>6040000</v>
       </c>
     </row>
     <row r="380">
@@ -6917,7 +6917,7 @@
         <v>2001</v>
       </c>
       <c r="D380" t="n">
-        <v>1320000</v>
+        <v>7710000</v>
       </c>
     </row>
     <row r="381">
@@ -6931,7 +6931,7 @@
         <v>2002</v>
       </c>
       <c r="D381" t="n">
-        <v>4040000</v>
+        <v>8800000</v>
       </c>
     </row>
     <row r="382">
@@ -6945,7 +6945,7 @@
         <v>2003</v>
       </c>
       <c r="D382" t="n">
-        <v>1240000</v>
+        <v>8490000</v>
       </c>
     </row>
     <row r="383">
@@ -6959,7 +6959,7 @@
         <v>2004</v>
       </c>
       <c r="D383" t="n">
-        <v>5890000</v>
+        <v>12150000</v>
       </c>
     </row>
     <row r="384">
@@ -6973,7 +6973,7 @@
         <v>2005</v>
       </c>
       <c r="D384" t="n">
-        <v>1030000</v>
+        <v>10440000</v>
       </c>
     </row>
     <row r="385">
@@ -6987,7 +6987,7 @@
         <v>2006</v>
       </c>
       <c r="D385" t="n">
-        <v>1700000</v>
+        <v>19850000</v>
       </c>
     </row>
     <row r="386">
@@ -7001,7 +7001,7 @@
         <v>2007</v>
       </c>
       <c r="D386" t="n">
-        <v>1360000</v>
+        <v>64560000</v>
       </c>
     </row>
     <row r="387">
@@ -7015,7 +7015,7 @@
         <v>2008</v>
       </c>
       <c r="D387" t="n">
-        <v>1940000</v>
+        <v>71350000</v>
       </c>
     </row>
     <row r="388">
@@ -7029,7 +7029,7 @@
         <v>2009</v>
       </c>
       <c r="D388" t="n">
-        <v>2530000</v>
+        <v>52330000</v>
       </c>
     </row>
     <row r="389">
@@ -7043,7 +7043,7 @@
         <v>2010</v>
       </c>
       <c r="D389" t="n">
-        <v>4690000</v>
+        <v>58820000</v>
       </c>
     </row>
     <row r="390">
@@ -7057,7 +7057,7 @@
         <v>2011</v>
       </c>
       <c r="D390" t="n">
-        <v>1370000</v>
+        <v>69510000</v>
       </c>
     </row>
     <row r="391">
@@ -7071,7 +7071,7 @@
         <v>2012</v>
       </c>
       <c r="D391" t="n">
-        <v>2180000</v>
+        <v>68870000</v>
       </c>
     </row>
     <row r="392">
@@ -7085,7 +7085,7 @@
         <v>2000</v>
       </c>
       <c r="D392" t="n">
-        <v>6040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -7099,7 +7099,7 @@
         <v>2001</v>
       </c>
       <c r="D393" t="n">
-        <v>7710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -7113,7 +7113,7 @@
         <v>2002</v>
       </c>
       <c r="D394" t="n">
-        <v>8800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -7127,7 +7127,7 @@
         <v>2003</v>
       </c>
       <c r="D395" t="n">
-        <v>8490000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7141,7 +7141,7 @@
         <v>2004</v>
       </c>
       <c r="D396" t="n">
-        <v>12150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -7155,7 +7155,7 @@
         <v>2005</v>
       </c>
       <c r="D397" t="n">
-        <v>10440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -7169,7 +7169,7 @@
         <v>2006</v>
       </c>
       <c r="D398" t="n">
-        <v>19850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -7183,7 +7183,7 @@
         <v>2007</v>
       </c>
       <c r="D399" t="n">
-        <v>64560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -7197,7 +7197,7 @@
         <v>2008</v>
       </c>
       <c r="D400" t="n">
-        <v>71350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -7211,7 +7211,7 @@
         <v>2009</v>
       </c>
       <c r="D401" t="n">
-        <v>52330000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -7225,7 +7225,7 @@
         <v>2010</v>
       </c>
       <c r="D402" t="n">
-        <v>58820000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -7239,7 +7239,7 @@
         <v>2011</v>
       </c>
       <c r="D403" t="n">
-        <v>69510000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -7253,7 +7253,7 @@
         <v>2012</v>
       </c>
       <c r="D404" t="n">
-        <v>68870000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -7267,7 +7267,7 @@
         <v>2000</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>9270000</v>
       </c>
     </row>
     <row r="406">
@@ -7281,7 +7281,7 @@
         <v>2001</v>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>11530000</v>
       </c>
     </row>
     <row r="407">
@@ -7295,7 +7295,7 @@
         <v>2002</v>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>5110000</v>
       </c>
     </row>
     <row r="408">
@@ -7309,7 +7309,7 @@
         <v>2003</v>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>12350000</v>
       </c>
     </row>
     <row r="409">
@@ -7323,7 +7323,7 @@
         <v>2004</v>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>113120000</v>
       </c>
     </row>
     <row r="410">
@@ -7337,7 +7337,7 @@
         <v>2005</v>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>135740000</v>
       </c>
     </row>
     <row r="411">
@@ -7351,7 +7351,7 @@
         <v>2006</v>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>116200000</v>
       </c>
     </row>
     <row r="412">
@@ -7365,7 +7365,7 @@
         <v>2007</v>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>197440000</v>
       </c>
     </row>
     <row r="413">
@@ -7379,7 +7379,7 @@
         <v>2008</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>259240000</v>
       </c>
     </row>
     <row r="414">
@@ -7393,7 +7393,7 @@
         <v>2009</v>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>335670000</v>
       </c>
     </row>
     <row r="415">
@@ -7407,7 +7407,7 @@
         <v>2010</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>291530000</v>
       </c>
     </row>
     <row r="416">
@@ -7421,7 +7421,7 @@
         <v>2011</v>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>259230000</v>
       </c>
     </row>
     <row r="417">
@@ -7435,7 +7435,7 @@
         <v>2012</v>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>298150000</v>
       </c>
     </row>
     <row r="418">
@@ -7449,7 +7449,7 @@
         <v>2000</v>
       </c>
       <c r="D418" t="n">
-        <v>9270000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="419">
@@ -7463,7 +7463,7 @@
         <v>2001</v>
       </c>
       <c r="D419" t="n">
-        <v>11530000</v>
+        <v>1420000</v>
       </c>
     </row>
     <row r="420">
@@ -7477,7 +7477,7 @@
         <v>2002</v>
       </c>
       <c r="D420" t="n">
-        <v>5110000</v>
+        <v>1610000</v>
       </c>
     </row>
     <row r="421">
@@ -7491,7 +7491,7 @@
         <v>2003</v>
       </c>
       <c r="D421" t="n">
-        <v>12350000</v>
+        <v>1940000</v>
       </c>
     </row>
     <row r="422">
@@ -7505,7 +7505,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>113120000</v>
+        <v>2660000</v>
       </c>
     </row>
     <row r="423">
@@ -7519,7 +7519,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>135740000</v>
+        <v>2440000</v>
       </c>
     </row>
     <row r="424">
@@ -7533,7 +7533,7 @@
         <v>2006</v>
       </c>
       <c r="D424" t="n">
-        <v>116200000</v>
+        <v>2040000</v>
       </c>
     </row>
     <row r="425">
@@ -7547,7 +7547,7 @@
         <v>2007</v>
       </c>
       <c r="D425" t="n">
-        <v>197440000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="426">
@@ -7561,7 +7561,7 @@
         <v>2008</v>
       </c>
       <c r="D426" t="n">
-        <v>259240000</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="427">
@@ -7575,7 +7575,7 @@
         <v>2009</v>
       </c>
       <c r="D427" t="n">
-        <v>335670000</v>
+        <v>1290000</v>
       </c>
     </row>
     <row r="428">
@@ -7589,7 +7589,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>291530000</v>
+        <v>75520000</v>
       </c>
     </row>
     <row r="429">
@@ -7603,7 +7603,7 @@
         <v>2011</v>
       </c>
       <c r="D429" t="n">
-        <v>259230000</v>
+        <v>6310000</v>
       </c>
     </row>
     <row r="430">
@@ -7617,7 +7617,7 @@
         <v>2012</v>
       </c>
       <c r="D430" t="n">
-        <v>298150000</v>
+        <v>4110000</v>
       </c>
     </row>
     <row r="431">
@@ -7631,7 +7631,7 @@
         <v>2000</v>
       </c>
       <c r="D431" t="n">
-        <v>840000</v>
+        <v>22960000</v>
       </c>
     </row>
     <row r="432">
@@ -7645,7 +7645,7 @@
         <v>2001</v>
       </c>
       <c r="D432" t="n">
-        <v>1420000</v>
+        <v>31590000</v>
       </c>
     </row>
     <row r="433">
@@ -7659,7 +7659,7 @@
         <v>2002</v>
       </c>
       <c r="D433" t="n">
-        <v>1610000</v>
+        <v>41390000</v>
       </c>
     </row>
     <row r="434">
@@ -7673,7 +7673,7 @@
         <v>2003</v>
       </c>
       <c r="D434" t="n">
-        <v>1940000</v>
+        <v>62360000</v>
       </c>
     </row>
     <row r="435">
@@ -7687,7 +7687,7 @@
         <v>2004</v>
       </c>
       <c r="D435" t="n">
-        <v>2660000</v>
+        <v>25110000</v>
       </c>
     </row>
     <row r="436">
@@ -7701,7 +7701,7 @@
         <v>2005</v>
       </c>
       <c r="D436" t="n">
-        <v>2440000</v>
+        <v>24570000</v>
       </c>
     </row>
     <row r="437">
@@ -7715,7 +7715,7 @@
         <v>2006</v>
       </c>
       <c r="D437" t="n">
-        <v>2040000</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="438">
@@ -7729,7 +7729,7 @@
         <v>2007</v>
       </c>
       <c r="D438" t="n">
-        <v>950000</v>
+        <v>8940000</v>
       </c>
     </row>
     <row r="439">
@@ -7743,7 +7743,7 @@
         <v>2008</v>
       </c>
       <c r="D439" t="n">
-        <v>860000</v>
+        <v>335900000</v>
       </c>
     </row>
     <row r="440">
@@ -7757,7 +7757,7 @@
         <v>2009</v>
       </c>
       <c r="D440" t="n">
-        <v>1290000</v>
+        <v>20320000</v>
       </c>
     </row>
     <row r="441">
@@ -7771,7 +7771,7 @@
         <v>2010</v>
       </c>
       <c r="D441" t="n">
-        <v>75520000</v>
+        <v>30220000</v>
       </c>
     </row>
     <row r="442">
@@ -7785,7 +7785,7 @@
         <v>2011</v>
       </c>
       <c r="D442" t="n">
-        <v>6310000</v>
+        <v>19950000</v>
       </c>
     </row>
     <row r="443">
@@ -7799,7 +7799,7 @@
         <v>2012</v>
       </c>
       <c r="D443" t="n">
-        <v>4110000</v>
+        <v>12680000</v>
       </c>
     </row>
     <row r="444">
@@ -7813,7 +7813,7 @@
         <v>2000</v>
       </c>
       <c r="D444" t="n">
-        <v>22960000</v>
+        <v>35730000</v>
       </c>
     </row>
     <row r="445">
@@ -7827,7 +7827,7 @@
         <v>2001</v>
       </c>
       <c r="D445" t="n">
-        <v>31590000</v>
+        <v>49160000</v>
       </c>
     </row>
     <row r="446">
@@ -7841,7 +7841,7 @@
         <v>2002</v>
       </c>
       <c r="D446" t="n">
-        <v>41390000</v>
+        <v>58740000</v>
       </c>
     </row>
     <row r="447">
@@ -7855,7 +7855,7 @@
         <v>2003</v>
       </c>
       <c r="D447" t="n">
-        <v>62360000</v>
+        <v>60380000</v>
       </c>
     </row>
     <row r="448">
@@ -7869,7 +7869,7 @@
         <v>2004</v>
       </c>
       <c r="D448" t="n">
-        <v>25110000</v>
+        <v>48420000</v>
       </c>
     </row>
     <row r="449">
@@ -7883,7 +7883,7 @@
         <v>2005</v>
       </c>
       <c r="D449" t="n">
-        <v>24570000</v>
+        <v>98400000</v>
       </c>
     </row>
     <row r="450">
@@ -7897,7 +7897,7 @@
         <v>2006</v>
       </c>
       <c r="D450" t="n">
-        <v>5480000</v>
+        <v>106440000</v>
       </c>
     </row>
     <row r="451">
@@ -7911,7 +7911,7 @@
         <v>2007</v>
       </c>
       <c r="D451" t="n">
-        <v>8940000</v>
+        <v>114040000</v>
       </c>
     </row>
     <row r="452">
@@ -7925,7 +7925,7 @@
         <v>2008</v>
       </c>
       <c r="D452" t="n">
-        <v>335900000</v>
+        <v>84180000</v>
       </c>
     </row>
     <row r="453">
@@ -7939,7 +7939,7 @@
         <v>2009</v>
       </c>
       <c r="D453" t="n">
-        <v>20320000</v>
+        <v>99740000</v>
       </c>
     </row>
     <row r="454">
@@ -7953,7 +7953,7 @@
         <v>2010</v>
       </c>
       <c r="D454" t="n">
-        <v>30220000</v>
+        <v>92520000</v>
       </c>
     </row>
     <row r="455">
@@ -7967,7 +7967,7 @@
         <v>2011</v>
       </c>
       <c r="D455" t="n">
-        <v>19950000</v>
+        <v>88040000</v>
       </c>
     </row>
     <row r="456">
@@ -7981,7 +7981,7 @@
         <v>2012</v>
       </c>
       <c r="D456" t="n">
-        <v>12680000</v>
+        <v>74510000</v>
       </c>
     </row>
     <row r="457">
@@ -7995,7 +7995,7 @@
         <v>2000</v>
       </c>
       <c r="D457" t="n">
-        <v>35730000</v>
+        <v>2270000</v>
       </c>
     </row>
     <row r="458">
@@ -8009,7 +8009,7 @@
         <v>2001</v>
       </c>
       <c r="D458" t="n">
-        <v>49160000</v>
+        <v>2940000</v>
       </c>
     </row>
     <row r="459">
@@ -8023,7 +8023,7 @@
         <v>2002</v>
       </c>
       <c r="D459" t="n">
-        <v>58740000</v>
+        <v>730000</v>
       </c>
     </row>
     <row r="460">
@@ -8037,7 +8037,7 @@
         <v>2003</v>
       </c>
       <c r="D460" t="n">
-        <v>60380000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="461">
@@ -8051,7 +8051,7 @@
         <v>2004</v>
       </c>
       <c r="D461" t="n">
-        <v>48420000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="462">
@@ -8065,7 +8065,7 @@
         <v>2005</v>
       </c>
       <c r="D462" t="n">
-        <v>98400000</v>
+        <v>1120000</v>
       </c>
     </row>
     <row r="463">
@@ -8079,7 +8079,7 @@
         <v>2006</v>
       </c>
       <c r="D463" t="n">
-        <v>106440000</v>
+        <v>1390000</v>
       </c>
     </row>
     <row r="464">
@@ -8093,7 +8093,7 @@
         <v>2007</v>
       </c>
       <c r="D464" t="n">
-        <v>114040000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="465">
@@ -8107,7 +8107,7 @@
         <v>2008</v>
       </c>
       <c r="D465" t="n">
-        <v>84180000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="466">
@@ -8121,7 +8121,7 @@
         <v>2009</v>
       </c>
       <c r="D466" t="n">
-        <v>99740000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="467">
@@ -8135,7 +8135,7 @@
         <v>2010</v>
       </c>
       <c r="D467" t="n">
-        <v>92520000</v>
+        <v>1160000</v>
       </c>
     </row>
     <row r="468">
@@ -8149,7 +8149,7 @@
         <v>2011</v>
       </c>
       <c r="D468" t="n">
-        <v>88040000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="469">
@@ -8163,7 +8163,7 @@
         <v>2012</v>
       </c>
       <c r="D469" t="n">
-        <v>74510000</v>
+        <v>6560000</v>
       </c>
     </row>
     <row r="470">
@@ -8177,7 +8177,7 @@
         <v>2000</v>
       </c>
       <c r="D470" t="n">
-        <v>2270000</v>
+        <v>17130000</v>
       </c>
     </row>
     <row r="471">
@@ -8191,7 +8191,7 @@
         <v>2001</v>
       </c>
       <c r="D471" t="n">
-        <v>2940000</v>
+        <v>29380000</v>
       </c>
     </row>
     <row r="472">
@@ -8205,7 +8205,7 @@
         <v>2002</v>
       </c>
       <c r="D472" t="n">
-        <v>730000</v>
+        <v>29190000</v>
       </c>
     </row>
     <row r="473">
@@ -8219,7 +8219,7 @@
         <v>2003</v>
       </c>
       <c r="D473" t="n">
-        <v>240000</v>
+        <v>22050000</v>
       </c>
     </row>
     <row r="474">
@@ -8233,7 +8233,7 @@
         <v>2004</v>
       </c>
       <c r="D474" t="n">
-        <v>230000</v>
+        <v>19860000</v>
       </c>
     </row>
     <row r="475">
@@ -8247,7 +8247,7 @@
         <v>2005</v>
       </c>
       <c r="D475" t="n">
-        <v>1120000</v>
+        <v>16220000</v>
       </c>
     </row>
     <row r="476">
@@ -8261,7 +8261,7 @@
         <v>2006</v>
       </c>
       <c r="D476" t="n">
-        <v>1390000</v>
+        <v>9070000</v>
       </c>
     </row>
     <row r="477">
@@ -8275,7 +8275,7 @@
         <v>2007</v>
       </c>
       <c r="D477" t="n">
-        <v>420000</v>
+        <v>10050000</v>
       </c>
     </row>
     <row r="478">
@@ -8289,7 +8289,7 @@
         <v>2008</v>
       </c>
       <c r="D478" t="n">
-        <v>1150000</v>
+        <v>6630000</v>
       </c>
     </row>
     <row r="479">
@@ -8303,7 +8303,7 @@
         <v>2009</v>
       </c>
       <c r="D479" t="n">
-        <v>810000</v>
+        <v>12040000</v>
       </c>
     </row>
     <row r="480">
@@ -8317,7 +8317,7 @@
         <v>2010</v>
       </c>
       <c r="D480" t="n">
-        <v>1160000</v>
+        <v>25640000</v>
       </c>
     </row>
     <row r="481">
@@ -8331,7 +8331,7 @@
         <v>2011</v>
       </c>
       <c r="D481" t="n">
-        <v>230000</v>
+        <v>8850000</v>
       </c>
     </row>
     <row r="482">
@@ -8345,7 +8345,7 @@
         <v>2012</v>
       </c>
       <c r="D482" t="n">
-        <v>6560000</v>
+        <v>19690000</v>
       </c>
     </row>
     <row r="483">
@@ -8359,7 +8359,7 @@
         <v>2000</v>
       </c>
       <c r="D483" t="n">
-        <v>17130000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -8373,7 +8373,7 @@
         <v>2001</v>
       </c>
       <c r="D484" t="n">
-        <v>29380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8387,7 +8387,7 @@
         <v>2002</v>
       </c>
       <c r="D485" t="n">
-        <v>29190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8401,7 +8401,7 @@
         <v>2003</v>
       </c>
       <c r="D486" t="n">
-        <v>22050000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="487">
@@ -8415,7 +8415,7 @@
         <v>2004</v>
       </c>
       <c r="D487" t="n">
-        <v>19860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -8429,7 +8429,7 @@
         <v>2005</v>
       </c>
       <c r="D488" t="n">
-        <v>16220000</v>
+        <v>1810000</v>
       </c>
     </row>
     <row r="489">
@@ -8443,7 +8443,7 @@
         <v>2006</v>
       </c>
       <c r="D489" t="n">
-        <v>9070000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="490">
@@ -8457,7 +8457,7 @@
         <v>2007</v>
       </c>
       <c r="D490" t="n">
-        <v>10050000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="491">
@@ -8471,7 +8471,7 @@
         <v>2008</v>
       </c>
       <c r="D491" t="n">
-        <v>6630000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="492">
@@ -8485,7 +8485,7 @@
         <v>2009</v>
       </c>
       <c r="D492" t="n">
-        <v>12040000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="493">
@@ -8499,7 +8499,7 @@
         <v>2010</v>
       </c>
       <c r="D493" t="n">
-        <v>25640000</v>
+        <v>3730000</v>
       </c>
     </row>
     <row r="494">
@@ -8513,7 +8513,7 @@
         <v>2011</v>
       </c>
       <c r="D494" t="n">
-        <v>8850000</v>
+        <v>4860000</v>
       </c>
     </row>
     <row r="495">
@@ -8527,7 +8527,7 @@
         <v>2012</v>
       </c>
       <c r="D495" t="n">
-        <v>19690000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="496">
@@ -8541,7 +8541,7 @@
         <v>2000</v>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="497">
@@ -8555,7 +8555,7 @@
         <v>2001</v>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>2460000</v>
       </c>
     </row>
     <row r="498">
@@ -8569,7 +8569,7 @@
         <v>2002</v>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="499">
@@ -8583,7 +8583,7 @@
         <v>2003</v>
       </c>
       <c r="D499" t="n">
-        <v>100000</v>
+        <v>2650000</v>
       </c>
     </row>
     <row r="500">
@@ -8597,7 +8597,7 @@
         <v>2004</v>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>2520000</v>
       </c>
     </row>
     <row r="501">
@@ -8611,7 +8611,7 @@
         <v>2005</v>
       </c>
       <c r="D501" t="n">
-        <v>1810000</v>
+        <v>2330000</v>
       </c>
     </row>
     <row r="502">
@@ -8625,7 +8625,7 @@
         <v>2006</v>
       </c>
       <c r="D502" t="n">
-        <v>140000</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="503">
@@ -8639,7 +8639,7 @@
         <v>2007</v>
       </c>
       <c r="D503" t="n">
-        <v>130000</v>
+        <v>2570000</v>
       </c>
     </row>
     <row r="504">
@@ -8653,7 +8653,7 @@
         <v>2008</v>
       </c>
       <c r="D504" t="n">
-        <v>410000</v>
+        <v>4940000</v>
       </c>
     </row>
     <row r="505">
@@ -8667,7 +8667,7 @@
         <v>2009</v>
       </c>
       <c r="D505" t="n">
-        <v>100000</v>
+        <v>2510000</v>
       </c>
     </row>
     <row r="506">
@@ -8681,7 +8681,7 @@
         <v>2010</v>
       </c>
       <c r="D506" t="n">
-        <v>3730000</v>
+        <v>1790000</v>
       </c>
     </row>
     <row r="507">
@@ -8695,7 +8695,7 @@
         <v>2011</v>
       </c>
       <c r="D507" t="n">
-        <v>4860000</v>
+        <v>1360000</v>
       </c>
     </row>
     <row r="508">
@@ -8709,7 +8709,7 @@
         <v>2012</v>
       </c>
       <c r="D508" t="n">
-        <v>980000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="509">
@@ -8723,7 +8723,7 @@
         <v>2000</v>
       </c>
       <c r="D509" t="n">
-        <v>960000</v>
+        <v>14720000</v>
       </c>
     </row>
     <row r="510">
@@ -8737,7 +8737,7 @@
         <v>2001</v>
       </c>
       <c r="D510" t="n">
-        <v>2460000</v>
+        <v>16300000</v>
       </c>
     </row>
     <row r="511">
@@ -8751,7 +8751,7 @@
         <v>2002</v>
       </c>
       <c r="D511" t="n">
-        <v>3100000</v>
+        <v>19180000</v>
       </c>
     </row>
     <row r="512">
@@ -8765,7 +8765,7 @@
         <v>2003</v>
       </c>
       <c r="D512" t="n">
-        <v>2650000</v>
+        <v>49750000</v>
       </c>
     </row>
     <row r="513">
@@ -8779,7 +8779,7 @@
         <v>2004</v>
       </c>
       <c r="D513" t="n">
-        <v>2520000</v>
+        <v>63750000</v>
       </c>
     </row>
     <row r="514">
@@ -8793,7 +8793,7 @@
         <v>2005</v>
       </c>
       <c r="D514" t="n">
-        <v>2330000</v>
+        <v>56340000</v>
       </c>
     </row>
     <row r="515">
@@ -8807,7 +8807,7 @@
         <v>2006</v>
       </c>
       <c r="D515" t="n">
-        <v>1430000</v>
+        <v>75700000</v>
       </c>
     </row>
     <row r="516">
@@ -8821,7 +8821,7 @@
         <v>2007</v>
       </c>
       <c r="D516" t="n">
-        <v>2570000</v>
+        <v>65370000</v>
       </c>
     </row>
     <row r="517">
@@ -8835,7 +8835,7 @@
         <v>2008</v>
       </c>
       <c r="D517" t="n">
-        <v>4940000</v>
+        <v>108620000</v>
       </c>
     </row>
     <row r="518">
@@ -8849,7 +8849,7 @@
         <v>2009</v>
       </c>
       <c r="D518" t="n">
-        <v>2510000</v>
+        <v>32870000</v>
       </c>
     </row>
     <row r="519">
@@ -8863,7 +8863,7 @@
         <v>2010</v>
       </c>
       <c r="D519" t="n">
-        <v>1790000</v>
+        <v>22220000</v>
       </c>
     </row>
     <row r="520">
@@ -8877,7 +8877,7 @@
         <v>2011</v>
       </c>
       <c r="D520" t="n">
-        <v>1360000</v>
+        <v>137260000</v>
       </c>
     </row>
     <row r="521">
@@ -8891,7 +8891,7 @@
         <v>2012</v>
       </c>
       <c r="D521" t="n">
-        <v>710000</v>
+        <v>103070000</v>
       </c>
     </row>
     <row r="522">
@@ -35483,43 +35483,43 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>14720000</v>
+        <v>75030000</v>
       </c>
       <c r="D28" t="n">
-        <v>16300000</v>
+        <v>39530000</v>
       </c>
       <c r="E28" t="n">
-        <v>19180000</v>
+        <v>28720000</v>
       </c>
       <c r="F28" t="n">
-        <v>49750000</v>
+        <v>14440000</v>
       </c>
       <c r="G28" t="n">
-        <v>63750000</v>
+        <v>18860000</v>
       </c>
       <c r="H28" t="n">
-        <v>56340000</v>
+        <v>12760000</v>
       </c>
       <c r="I28" t="n">
-        <v>75700000</v>
+        <v>17280000</v>
       </c>
       <c r="J28" t="n">
-        <v>65370000</v>
+        <v>22860000</v>
       </c>
       <c r="K28" t="n">
-        <v>108620000</v>
+        <v>17750000</v>
       </c>
       <c r="L28" t="n">
-        <v>32870000</v>
+        <v>15220000</v>
       </c>
       <c r="M28" t="n">
-        <v>22220000</v>
+        <v>12800000</v>
       </c>
       <c r="N28" t="n">
-        <v>137260000</v>
+        <v>27810000</v>
       </c>
       <c r="O28" t="n">
-        <v>103070000</v>
+        <v>21930000</v>
       </c>
     </row>
     <row r="29">
@@ -35530,43 +35530,43 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>75030000</v>
+        <v>3250000</v>
       </c>
       <c r="D29" t="n">
-        <v>39530000</v>
+        <v>36700000</v>
       </c>
       <c r="E29" t="n">
-        <v>28720000</v>
+        <v>7460000</v>
       </c>
       <c r="F29" t="n">
-        <v>14440000</v>
+        <v>9810000</v>
       </c>
       <c r="G29" t="n">
-        <v>18860000</v>
+        <v>7810000</v>
       </c>
       <c r="H29" t="n">
-        <v>12760000</v>
+        <v>6360000</v>
       </c>
       <c r="I29" t="n">
-        <v>17280000</v>
+        <v>5640000</v>
       </c>
       <c r="J29" t="n">
-        <v>22860000</v>
+        <v>5610000</v>
       </c>
       <c r="K29" t="n">
-        <v>17750000</v>
+        <v>28410000</v>
       </c>
       <c r="L29" t="n">
-        <v>15220000</v>
+        <v>28820000</v>
       </c>
       <c r="M29" t="n">
-        <v>12800000</v>
+        <v>18040000</v>
       </c>
       <c r="N29" t="n">
-        <v>27810000</v>
+        <v>20310000</v>
       </c>
       <c r="O29" t="n">
-        <v>21930000</v>
+        <v>48030000</v>
       </c>
     </row>
     <row r="30">
@@ -35577,43 +35577,43 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>3250000</v>
+        <v>4540000</v>
       </c>
       <c r="D30" t="n">
-        <v>36700000</v>
+        <v>1320000</v>
       </c>
       <c r="E30" t="n">
-        <v>7460000</v>
+        <v>4040000</v>
       </c>
       <c r="F30" t="n">
-        <v>9810000</v>
+        <v>1240000</v>
       </c>
       <c r="G30" t="n">
-        <v>7810000</v>
+        <v>5890000</v>
       </c>
       <c r="H30" t="n">
-        <v>6360000</v>
+        <v>1030000</v>
       </c>
       <c r="I30" t="n">
-        <v>5640000</v>
+        <v>1700000</v>
       </c>
       <c r="J30" t="n">
-        <v>5610000</v>
+        <v>1360000</v>
       </c>
       <c r="K30" t="n">
-        <v>28410000</v>
+        <v>1940000</v>
       </c>
       <c r="L30" t="n">
-        <v>28820000</v>
+        <v>2530000</v>
       </c>
       <c r="M30" t="n">
-        <v>18040000</v>
+        <v>4690000</v>
       </c>
       <c r="N30" t="n">
-        <v>20310000</v>
+        <v>1370000</v>
       </c>
       <c r="O30" t="n">
-        <v>48030000</v>
+        <v>2180000</v>
       </c>
     </row>
     <row r="31">
@@ -35624,43 +35624,43 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>4540000</v>
+        <v>6040000</v>
       </c>
       <c r="D31" t="n">
-        <v>1320000</v>
+        <v>7710000</v>
       </c>
       <c r="E31" t="n">
-        <v>4040000</v>
+        <v>8800000</v>
       </c>
       <c r="F31" t="n">
-        <v>1240000</v>
+        <v>8490000</v>
       </c>
       <c r="G31" t="n">
-        <v>5890000</v>
+        <v>12150000</v>
       </c>
       <c r="H31" t="n">
-        <v>1030000</v>
+        <v>10440000</v>
       </c>
       <c r="I31" t="n">
-        <v>1700000</v>
+        <v>19850000</v>
       </c>
       <c r="J31" t="n">
-        <v>1360000</v>
+        <v>64560000</v>
       </c>
       <c r="K31" t="n">
-        <v>1940000</v>
+        <v>71350000</v>
       </c>
       <c r="L31" t="n">
-        <v>2530000</v>
+        <v>52330000</v>
       </c>
       <c r="M31" t="n">
-        <v>4690000</v>
+        <v>58820000</v>
       </c>
       <c r="N31" t="n">
-        <v>1370000</v>
+        <v>69510000</v>
       </c>
       <c r="O31" t="n">
-        <v>2180000</v>
+        <v>68870000</v>
       </c>
     </row>
     <row r="32">
@@ -35671,43 +35671,43 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>6040000</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7710000</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8800000</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8490000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12150000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10440000</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>19850000</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>64560000</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>71350000</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>52330000</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>58820000</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>69510000</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>68870000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -35718,43 +35718,43 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9270000</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>11530000</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>5110000</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>12350000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>113120000</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>135740000</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>116200000</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>197440000</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259240000</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>335670000</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>291530000</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>259230000</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>298150000</v>
       </c>
     </row>
     <row r="34">
@@ -35765,43 +35765,43 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>9270000</v>
+        <v>840000</v>
       </c>
       <c r="D34" t="n">
-        <v>11530000</v>
+        <v>1420000</v>
       </c>
       <c r="E34" t="n">
-        <v>5110000</v>
+        <v>1610000</v>
       </c>
       <c r="F34" t="n">
-        <v>12350000</v>
+        <v>1940000</v>
       </c>
       <c r="G34" t="n">
-        <v>113120000</v>
+        <v>2660000</v>
       </c>
       <c r="H34" t="n">
-        <v>135740000</v>
+        <v>2440000</v>
       </c>
       <c r="I34" t="n">
-        <v>116200000</v>
+        <v>2040000</v>
       </c>
       <c r="J34" t="n">
-        <v>197440000</v>
+        <v>950000</v>
       </c>
       <c r="K34" t="n">
-        <v>259240000</v>
+        <v>860000</v>
       </c>
       <c r="L34" t="n">
-        <v>335670000</v>
+        <v>1290000</v>
       </c>
       <c r="M34" t="n">
-        <v>291530000</v>
+        <v>75520000</v>
       </c>
       <c r="N34" t="n">
-        <v>259230000</v>
+        <v>6310000</v>
       </c>
       <c r="O34" t="n">
-        <v>298150000</v>
+        <v>4110000</v>
       </c>
     </row>
     <row r="35">
@@ -35812,43 +35812,43 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>840000</v>
+        <v>22960000</v>
       </c>
       <c r="D35" t="n">
-        <v>1420000</v>
+        <v>31590000</v>
       </c>
       <c r="E35" t="n">
-        <v>1610000</v>
+        <v>41390000</v>
       </c>
       <c r="F35" t="n">
-        <v>1940000</v>
+        <v>62360000</v>
       </c>
       <c r="G35" t="n">
-        <v>2660000</v>
+        <v>25110000</v>
       </c>
       <c r="H35" t="n">
-        <v>2440000</v>
+        <v>24570000</v>
       </c>
       <c r="I35" t="n">
-        <v>2040000</v>
+        <v>5480000</v>
       </c>
       <c r="J35" t="n">
-        <v>950000</v>
+        <v>8940000</v>
       </c>
       <c r="K35" t="n">
-        <v>860000</v>
+        <v>335900000</v>
       </c>
       <c r="L35" t="n">
-        <v>1290000</v>
+        <v>20320000</v>
       </c>
       <c r="M35" t="n">
-        <v>75520000</v>
+        <v>30220000</v>
       </c>
       <c r="N35" t="n">
-        <v>6310000</v>
+        <v>19950000</v>
       </c>
       <c r="O35" t="n">
-        <v>4110000</v>
+        <v>12680000</v>
       </c>
     </row>
     <row r="36">
@@ -35859,43 +35859,43 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>22960000</v>
+        <v>35730000</v>
       </c>
       <c r="D36" t="n">
-        <v>31590000</v>
+        <v>49160000</v>
       </c>
       <c r="E36" t="n">
-        <v>41390000</v>
+        <v>58740000</v>
       </c>
       <c r="F36" t="n">
-        <v>62360000</v>
+        <v>60380000</v>
       </c>
       <c r="G36" t="n">
-        <v>25110000</v>
+        <v>48420000</v>
       </c>
       <c r="H36" t="n">
-        <v>24570000</v>
+        <v>98400000</v>
       </c>
       <c r="I36" t="n">
-        <v>5480000</v>
+        <v>106440000</v>
       </c>
       <c r="J36" t="n">
-        <v>8940000</v>
+        <v>114040000</v>
       </c>
       <c r="K36" t="n">
-        <v>335900000</v>
+        <v>84180000</v>
       </c>
       <c r="L36" t="n">
-        <v>20320000</v>
+        <v>99740000</v>
       </c>
       <c r="M36" t="n">
-        <v>30220000</v>
+        <v>92520000</v>
       </c>
       <c r="N36" t="n">
-        <v>19950000</v>
+        <v>88040000</v>
       </c>
       <c r="O36" t="n">
-        <v>12680000</v>
+        <v>74510000</v>
       </c>
     </row>
     <row r="37">
@@ -35906,43 +35906,43 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>35730000</v>
+        <v>2270000</v>
       </c>
       <c r="D37" t="n">
-        <v>49160000</v>
+        <v>2940000</v>
       </c>
       <c r="E37" t="n">
-        <v>58740000</v>
+        <v>730000</v>
       </c>
       <c r="F37" t="n">
-        <v>60380000</v>
+        <v>240000</v>
       </c>
       <c r="G37" t="n">
-        <v>48420000</v>
+        <v>230000</v>
       </c>
       <c r="H37" t="n">
-        <v>98400000</v>
+        <v>1120000</v>
       </c>
       <c r="I37" t="n">
-        <v>106440000</v>
+        <v>1390000</v>
       </c>
       <c r="J37" t="n">
-        <v>114040000</v>
+        <v>420000</v>
       </c>
       <c r="K37" t="n">
-        <v>84180000</v>
+        <v>1150000</v>
       </c>
       <c r="L37" t="n">
-        <v>99740000</v>
+        <v>810000</v>
       </c>
       <c r="M37" t="n">
-        <v>92520000</v>
+        <v>1160000</v>
       </c>
       <c r="N37" t="n">
-        <v>88040000</v>
+        <v>230000</v>
       </c>
       <c r="O37" t="n">
-        <v>74510000</v>
+        <v>6560000</v>
       </c>
     </row>
     <row r="38">
@@ -35953,43 +35953,43 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>2270000</v>
+        <v>17130000</v>
       </c>
       <c r="D38" t="n">
-        <v>2940000</v>
+        <v>29380000</v>
       </c>
       <c r="E38" t="n">
-        <v>730000</v>
+        <v>29190000</v>
       </c>
       <c r="F38" t="n">
-        <v>240000</v>
+        <v>22050000</v>
       </c>
       <c r="G38" t="n">
-        <v>230000</v>
+        <v>19860000</v>
       </c>
       <c r="H38" t="n">
-        <v>1120000</v>
+        <v>16220000</v>
       </c>
       <c r="I38" t="n">
-        <v>1390000</v>
+        <v>9070000</v>
       </c>
       <c r="J38" t="n">
-        <v>420000</v>
+        <v>10050000</v>
       </c>
       <c r="K38" t="n">
-        <v>1150000</v>
+        <v>6630000</v>
       </c>
       <c r="L38" t="n">
-        <v>810000</v>
+        <v>12040000</v>
       </c>
       <c r="M38" t="n">
-        <v>1160000</v>
+        <v>25640000</v>
       </c>
       <c r="N38" t="n">
-        <v>230000</v>
+        <v>8850000</v>
       </c>
       <c r="O38" t="n">
-        <v>6560000</v>
+        <v>19690000</v>
       </c>
     </row>
     <row r="39">
@@ -36000,43 +36000,43 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>17130000</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>29380000</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>29190000</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>22050000</v>
+        <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>19860000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>16220000</v>
+        <v>1810000</v>
       </c>
       <c r="I39" t="n">
-        <v>9070000</v>
+        <v>140000</v>
       </c>
       <c r="J39" t="n">
-        <v>10050000</v>
+        <v>130000</v>
       </c>
       <c r="K39" t="n">
-        <v>6630000</v>
+        <v>410000</v>
       </c>
       <c r="L39" t="n">
-        <v>12040000</v>
+        <v>100000</v>
       </c>
       <c r="M39" t="n">
-        <v>25640000</v>
+        <v>3730000</v>
       </c>
       <c r="N39" t="n">
-        <v>8850000</v>
+        <v>4860000</v>
       </c>
       <c r="O39" t="n">
-        <v>19690000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="40">
@@ -36047,43 +36047,43 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2460000</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3100000</v>
       </c>
       <c r="F40" t="n">
-        <v>100000</v>
+        <v>2650000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2520000</v>
       </c>
       <c r="H40" t="n">
-        <v>1810000</v>
+        <v>2330000</v>
       </c>
       <c r="I40" t="n">
-        <v>140000</v>
+        <v>1430000</v>
       </c>
       <c r="J40" t="n">
-        <v>130000</v>
+        <v>2570000</v>
       </c>
       <c r="K40" t="n">
-        <v>410000</v>
+        <v>4940000</v>
       </c>
       <c r="L40" t="n">
-        <v>100000</v>
+        <v>2510000</v>
       </c>
       <c r="M40" t="n">
-        <v>3730000</v>
+        <v>1790000</v>
       </c>
       <c r="N40" t="n">
-        <v>4860000</v>
+        <v>1360000</v>
       </c>
       <c r="O40" t="n">
-        <v>980000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="41">
@@ -36094,43 +36094,43 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>960000</v>
+        <v>14720000</v>
       </c>
       <c r="D41" t="n">
-        <v>2460000</v>
+        <v>16300000</v>
       </c>
       <c r="E41" t="n">
-        <v>3100000</v>
+        <v>19180000</v>
       </c>
       <c r="F41" t="n">
-        <v>2650000</v>
+        <v>49750000</v>
       </c>
       <c r="G41" t="n">
-        <v>2520000</v>
+        <v>63750000</v>
       </c>
       <c r="H41" t="n">
-        <v>2330000</v>
+        <v>56340000</v>
       </c>
       <c r="I41" t="n">
-        <v>1430000</v>
+        <v>75700000</v>
       </c>
       <c r="J41" t="n">
-        <v>2570000</v>
+        <v>65370000</v>
       </c>
       <c r="K41" t="n">
-        <v>4940000</v>
+        <v>108620000</v>
       </c>
       <c r="L41" t="n">
-        <v>2510000</v>
+        <v>32870000</v>
       </c>
       <c r="M41" t="n">
-        <v>1790000</v>
+        <v>22220000</v>
       </c>
       <c r="N41" t="n">
-        <v>1360000</v>
+        <v>137260000</v>
       </c>
       <c r="O41" t="n">
-        <v>710000</v>
+        <v>103070000</v>
       </c>
     </row>
     <row r="42">

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 57</t>
+    <t xml:space="preserve">Source: 58</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 58</t>
+    <t xml:space="preserve">Source: 59</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 57</t>
+    <t xml:space="preserve">Source: 59</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/in-ha/in-ha.xlsx
+++ b/user-data/in-ha/in-ha.xlsx
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 59</t>
+    <t xml:space="preserve">Source: 58</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
